--- a/resultados/resultados_slot10.xlsx
+++ b/resultados/resultados_slot10.xlsx
@@ -481,7 +481,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>dwt_198.mtx</t>
+          <t>ck400.mtx</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -490,25 +490,25 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>8.235967774192392</v>
+        <v>5.502385709075823</v>
       </c>
       <c r="E2" t="n">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02615976333618164</v>
+        <v>0.005772590637207031</v>
       </c>
       <c r="G2" t="n">
-        <v>198</v>
+        <v>400</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>pattern</t>
+          <t>real</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>symmetric</t>
+          <t>general</t>
         </is>
       </c>
     </row>
@@ -518,7 +518,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>dwt_198.mtx</t>
+          <t>ck400.mtx</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -527,25 +527,25 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>8.238892199495892</v>
+        <v>5.502377894478053</v>
       </c>
       <c r="E3" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0005121231079101562</v>
+        <v>0.0005099773406982422</v>
       </c>
       <c r="G3" t="n">
-        <v>198</v>
+        <v>400</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>pattern</t>
+          <t>real</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>symmetric</t>
+          <t>general</t>
         </is>
       </c>
     </row>
@@ -555,7 +555,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>curtis54.mtx</t>
+          <t>dwt_234.mtx</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -564,16 +564,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>6.620026168940758</v>
+        <v>4.582832763035696</v>
       </c>
       <c r="E4" t="n">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0009179115295410156</v>
+        <v>0.001645088195800781</v>
       </c>
       <c r="G4" t="n">
-        <v>54</v>
+        <v>234</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -582,7 +582,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>general</t>
+          <t>symmetric</t>
         </is>
       </c>
     </row>
@@ -592,7 +592,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>curtis54.mtx</t>
+          <t>dwt_234.mtx</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -601,16 +601,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>6.621506504127326</v>
+        <v>4.582889067575105</v>
       </c>
       <c r="E5" t="n">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0003719329833984375</v>
+        <v>0.0007410049438476562</v>
       </c>
       <c r="G5" t="n">
-        <v>54</v>
+        <v>234</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -619,7 +619,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>general</t>
+          <t>symmetric</t>
         </is>
       </c>
     </row>
@@ -629,7 +629,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>dwt_234.mtx</t>
+          <t>ck104.mtx</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -638,25 +638,25 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>4.582832763035696</v>
+        <v>5.502385709511155</v>
       </c>
       <c r="E6" t="n">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0008461475372314453</v>
+        <v>0.0003182888031005859</v>
       </c>
       <c r="G6" t="n">
-        <v>234</v>
+        <v>104</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>pattern</t>
+          <t>real</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>symmetric</t>
+          <t>general</t>
         </is>
       </c>
     </row>
@@ -666,7 +666,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>dwt_234.mtx</t>
+          <t>ck104.mtx</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -675,25 +675,25 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4.582889067575105</v>
+        <v>5.502378006298808</v>
       </c>
       <c r="E7" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0003561973571777344</v>
+        <v>0.0003328323364257812</v>
       </c>
       <c r="G7" t="n">
-        <v>234</v>
+        <v>104</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>pattern</t>
+          <t>real</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>symmetric</t>
+          <t>general</t>
         </is>
       </c>
     </row>
@@ -703,7 +703,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ck104.mtx</t>
+          <t>dwt_221.mtx</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -712,25 +712,25 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>5.502385709511155</v>
+        <v>8.222266227162402</v>
       </c>
       <c r="E8" t="n">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0001540184020996094</v>
+        <v>0.002380609512329102</v>
       </c>
       <c r="G8" t="n">
-        <v>104</v>
+        <v>221</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>real</t>
+          <t>pattern</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>general</t>
+          <t>symmetric</t>
         </is>
       </c>
     </row>
@@ -740,7 +740,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ck104.mtx</t>
+          <t>dwt_221.mtx</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -749,25 +749,25 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>5.502378006298808</v>
+        <v>8.221257129721657</v>
       </c>
       <c r="E9" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0002527236938476562</v>
+        <v>0.0005552768707275391</v>
       </c>
       <c r="G9" t="n">
-        <v>104</v>
+        <v>221</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>real</t>
+          <t>pattern</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>general</t>
+          <t>symmetric</t>
         </is>
       </c>
     </row>
@@ -792,7 +792,7 @@
         <v>100</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1025106906890869</v>
+        <v>0.1982429027557373</v>
       </c>
       <c r="G10" t="n">
         <v>2048</v>
@@ -829,7 +829,7 @@
         <v>64</v>
       </c>
       <c r="F11" t="n">
-        <v>0.07218813896179199</v>
+        <v>0.1188299655914307</v>
       </c>
       <c r="G11" t="n">
         <v>2048</v>
@@ -851,7 +851,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ck400.mtx</t>
+          <t>dwt_162.mtx</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -860,25 +860,25 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>5.502385709075823</v>
+        <v>8.131173666984399</v>
       </c>
       <c r="E12" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0004572868347167969</v>
+        <v>0.003912687301635742</v>
       </c>
       <c r="G12" t="n">
-        <v>400</v>
+        <v>162</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>real</t>
+          <t>pattern</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>general</t>
+          <t>symmetric</t>
         </is>
       </c>
     </row>
@@ -888,7 +888,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ck400.mtx</t>
+          <t>dwt_162.mtx</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -897,25 +897,25 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>5.502377894478053</v>
+        <v>8.132165227695589</v>
       </c>
       <c r="E13" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0003921985626220703</v>
+        <v>0.0018157958984375</v>
       </c>
       <c r="G13" t="n">
-        <v>400</v>
+        <v>162</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>real</t>
+          <t>pattern</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>general</t>
+          <t>symmetric</t>
         </is>
       </c>
     </row>
@@ -925,7 +925,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>dwt_162.mtx</t>
+          <t>dwt_198.mtx</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -934,16 +934,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>8.131173666984399</v>
+        <v>8.235967774192392</v>
       </c>
       <c r="E14" t="n">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="F14" t="n">
-        <v>0.001169681549072266</v>
+        <v>0.004623889923095703</v>
       </c>
       <c r="G14" t="n">
-        <v>162</v>
+        <v>198</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>dwt_162.mtx</t>
+          <t>dwt_198.mtx</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -971,16 +971,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>8.132165227695589</v>
+        <v>8.238892199495892</v>
       </c>
       <c r="E15" t="n">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0006844997406005859</v>
+        <v>0.001107931137084961</v>
       </c>
       <c r="G15" t="n">
-        <v>162</v>
+        <v>198</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>dwt_221.mtx</t>
+          <t>curtis54.mtx</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1008,16 +1008,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>8.222266227162402</v>
+        <v>6.620026168940758</v>
       </c>
       <c r="E16" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F16" t="n">
-        <v>0.001112699508666992</v>
+        <v>0.002235889434814453</v>
       </c>
       <c r="G16" t="n">
-        <v>221</v>
+        <v>54</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>symmetric</t>
+          <t>general</t>
         </is>
       </c>
     </row>
@@ -1036,7 +1036,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>dwt_221.mtx</t>
+          <t>curtis54.mtx</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1045,16 +1045,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>8.221257129721657</v>
+        <v>6.621506504127326</v>
       </c>
       <c r="E17" t="n">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0002899169921875</v>
+        <v>0.001269340515136719</v>
       </c>
       <c r="G17" t="n">
-        <v>221</v>
+        <v>54</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1063,7 +1063,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>symmetric</t>
+          <t>general</t>
         </is>
       </c>
     </row>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>dwt_193.mtx</t>
+          <t>can_1072.mtx</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1082,16 +1082,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>21.10392161420017</v>
+        <v>14.88215804242096</v>
       </c>
       <c r="E18" t="n">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0003437995910644531</v>
+        <v>0.01970529556274414</v>
       </c>
       <c r="G18" t="n">
-        <v>193</v>
+        <v>1072</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>dwt_193.mtx</t>
+          <t>can_1072.mtx</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1119,16 +1119,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>21.10433304028249</v>
+        <v>14.88298457662608</v>
       </c>
       <c r="E19" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0003402233123779297</v>
+        <v>0.01053977012634277</v>
       </c>
       <c r="G19" t="n">
-        <v>193</v>
+        <v>1072</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>can_1072.mtx</t>
+          <t>dwt_193.mtx</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1156,16 +1156,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>14.88215804242096</v>
+        <v>21.10392161420017</v>
       </c>
       <c r="E20" t="n">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="F20" t="n">
-        <v>0.01361513137817383</v>
+        <v>0.0007903575897216797</v>
       </c>
       <c r="G20" t="n">
-        <v>1072</v>
+        <v>193</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1184,7 +1184,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>can_1072.mtx</t>
+          <t>dwt_193.mtx</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1193,16 +1193,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>14.88298457662608</v>
+        <v>21.10433304028249</v>
       </c>
       <c r="E21" t="n">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="F21" t="n">
-        <v>0.007135629653930664</v>
+        <v>0.0006158351898193359</v>
       </c>
       <c r="G21" t="n">
-        <v>1072</v>
+        <v>193</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
